--- a/Michelson/data.xlsx
+++ b/Michelson/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\python\PhysicsExperiment\Michelson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B9151-18D8-4110-9FCE-75BF09971622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488CF7D6-4BB5-4F16-AA41-768B906204E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="588" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
